--- a/tidsplan_Modbus.xlsx
+++ b/tidsplan_Modbus.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{AC4BE046-4E74-4518-9E74-E235F99D2F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AB7407E-E578-4200-A6BD-5E8E467A6ECB}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{AC4BE046-4E74-4518-9E74-E235F99D2F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D37E2EF2-DC77-422B-9C8D-1F7753E86BF5}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1036,8 +1036,8 @@
   </sheetPr>
   <dimension ref="B1:BV16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="49" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1138,22 +1138,66 @@
       <c r="I3" s="8"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
+      <c r="L3" s="9">
+        <v>12</v>
+      </c>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
+      <c r="P3" s="9">
+        <v>19</v>
+      </c>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
       <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
+      <c r="T3" s="9">
+        <v>26</v>
+      </c>
       <c r="U3" s="9"/>
       <c r="V3" s="9"/>
       <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
+      <c r="X3" s="9">
+        <v>3</v>
+      </c>
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
       <c r="AA3" s="9"/>
+      <c r="AB3" s="10">
+        <v>10</v>
+      </c>
+      <c r="AF3" s="10">
+        <v>17</v>
+      </c>
+      <c r="AJ3" s="10">
+        <v>24</v>
+      </c>
+      <c r="AN3" s="10">
+        <v>31</v>
+      </c>
+      <c r="AR3" s="10">
+        <v>7</v>
+      </c>
+      <c r="AV3" s="10">
+        <v>14</v>
+      </c>
+      <c r="AZ3" s="10">
+        <v>21</v>
+      </c>
+      <c r="BD3" s="10">
+        <v>28</v>
+      </c>
+      <c r="BH3" s="10">
+        <v>5</v>
+      </c>
+      <c r="BL3" s="10">
+        <v>12</v>
+      </c>
+      <c r="BP3" s="10">
+        <v>19</v>
+      </c>
+      <c r="BT3" s="10">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" spans="2:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="36"/>
@@ -1459,7 +1503,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G9" s="6">
         <v>1</v>

--- a/tidsplan_Modbus.xlsx
+++ b/tidsplan_Modbus.xlsx
@@ -585,6 +585,18 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -594,9 +606,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -611,15 +620,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1036,8 +1036,8 @@
   </sheetPr>
   <dimension ref="B1:BV16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1070,66 +1070,66 @@
       <c r="F2" s="19"/>
       <c r="G2" s="1"/>
       <c r="H2" s="13"/>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="32"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="35"/>
       <c r="N2" s="14"/>
-      <c r="O2" s="30" t="s">
+      <c r="O2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="32"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="35"/>
       <c r="T2" s="15"/>
-      <c r="U2" s="26" t="s">
+      <c r="U2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="27"/>
-      <c r="W2" s="34"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="37"/>
       <c r="X2" s="16"/>
-      <c r="Y2" s="26" t="s">
+      <c r="Y2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
       <c r="AE2" s="17"/>
-      <c r="AF2" s="26" t="s">
+      <c r="AF2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="27"/>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="27"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
       <c r="AM2" s="20"/>
       <c r="AN2" s="20"/>
     </row>
     <row r="3" spans="2:74" s="10" customFormat="1" ht="40" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="32" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="18" t="s">
@@ -1200,7 +1200,7 @@
       </c>
     </row>
     <row r="4" spans="2:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="36"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
@@ -1627,17 +1627,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
     <mergeCell ref="AF2:AL2"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="I2:M2"/>
     <mergeCell ref="O2:S2"/>
     <mergeCell ref="U2:W2"/>
     <mergeCell ref="Y2:AD2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="B17:BV17">
     <cfRule type="expression" dxfId="9" priority="2">
@@ -1675,7 +1675,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="15">
+  <dataValidations count="15">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Projektplanlæggeren bruger tidsrum som intervaller. Start=1 er tidsrum 1 og varighed=5 betyder, at projektet indeholder 5 tidsrum fra starttidsrummet. Indtast data med start i B5 for at opdatere diagrammet" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver varighed for plan" sqref="H2" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver faktisk varighed" sqref="N2" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
@@ -1707,9 +1707,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1930,27 +1933,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85B9ECBC-60FA-41BB-89CB-CAA0246D1B0B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD7E7961-49AB-419E-B552-C5AAA8291A28}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="aef43f9c-97fc-43e5-a0d3-77ea3055cea3"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f0d45334-784b-4fc5-ade3-c349fb5a7e08"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1975,9 +1966,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD7E7961-49AB-419E-B552-C5AAA8291A28}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85B9ECBC-60FA-41BB-89CB-CAA0246D1B0B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="aef43f9c-97fc-43e5-a0d3-77ea3055cea3"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f0d45334-784b-4fc5-ade3-c349fb5a7e08"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>